--- a/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_+20%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/WeightCheckTime/WeightCheckTime10 Aircraft 9_1_+20%.xlsx
@@ -73385,6 +73385,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>14.6855</v>
+      </c>
       <c r="C2" t="n">
         <v>455.9511111111111</v>
       </c>
@@ -73440,6 +73443,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>14.20716666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>442.6561111111112</v>
       </c>
@@ -73495,6 +73501,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.14216666666667</v>
+      </c>
       <c r="C4" t="n">
         <v>453.0205555555556</v>
       </c>
@@ -73550,6 +73559,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.7625</v>
+      </c>
       <c r="C5" t="n">
         <v>461.596111111111</v>
       </c>
@@ -73605,6 +73617,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>12.57233333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>435.9905555555555</v>
       </c>
@@ -73660,6 +73675,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.47883333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>427.1533333333333</v>
       </c>
@@ -73715,6 +73733,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>14.78233333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>459.0577777777778</v>
       </c>
@@ -73770,6 +73791,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>14.42816666666667</v>
+      </c>
       <c r="C9" t="n">
         <v>440.855</v>
       </c>
@@ -73825,6 +73849,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.21466666666667</v>
+      </c>
       <c r="C10" t="n">
         <v>457.33</v>
       </c>
@@ -73880,6 +73907,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>12.29966666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>411.3616666666667</v>
       </c>
@@ -73935,6 +73965,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.09233333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>454.7366666666667</v>
       </c>
@@ -73990,6 +74023,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>14.55433333333333</v>
+      </c>
       <c r="C13" t="n">
         <v>445.6544444444445</v>
       </c>
@@ -74045,6 +74081,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.50316666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>456.5222222222222</v>
       </c>
@@ -74100,6 +74139,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.43633333333333</v>
+      </c>
       <c r="C15" t="n">
         <v>422.1238888888889</v>
       </c>
@@ -74155,6 +74197,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>14.08316666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>461.2922222222222</v>
       </c>
@@ -74210,6 +74255,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>11.53383333333333</v>
+      </c>
       <c r="C17" t="n">
         <v>411.5127777777778</v>
       </c>
@@ -74265,6 +74313,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.66516666666667</v>
+      </c>
       <c r="C18" t="n">
         <v>428.6022222222222</v>
       </c>
@@ -74320,6 +74371,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>14.38183333333333</v>
+      </c>
       <c r="C19" t="n">
         <v>451.6416666666667</v>
       </c>
@@ -74375,6 +74429,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.59433333333333</v>
+      </c>
       <c r="C20" t="n">
         <v>436.6988888888889</v>
       </c>
@@ -74430,6 +74487,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>13.37766666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>433.4333333333334</v>
       </c>
@@ -74485,6 +74545,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.0305</v>
+      </c>
       <c r="C22" t="n">
         <v>438.2155555555556</v>
       </c>
@@ -74540,6 +74603,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>12.61433333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>426.4433333333333</v>
       </c>
@@ -74595,6 +74661,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>13.42633333333333</v>
+      </c>
       <c r="C24" t="n">
         <v>436.905</v>
       </c>
@@ -74650,6 +74719,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.201</v>
+      </c>
       <c r="C25" t="n">
         <v>423.8966666666666</v>
       </c>
@@ -74705,6 +74777,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>14.60483333333333</v>
+      </c>
       <c r="C26" t="n">
         <v>473.0588888888889</v>
       </c>
@@ -74760,6 +74835,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>13.26866666666667</v>
+      </c>
       <c r="C27" t="n">
         <v>478.7272222222222</v>
       </c>
@@ -74815,6 +74893,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.11066666666667</v>
+      </c>
       <c r="C28" t="n">
         <v>431.5677777777778</v>
       </c>
@@ -74870,6 +74951,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.34</v>
+      </c>
       <c r="C29" t="n">
         <v>437.4933333333333</v>
       </c>
@@ -74925,6 +75009,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>13.6625</v>
+      </c>
       <c r="C30" t="n">
         <v>442.1094444444444</v>
       </c>
@@ -74979,6 +75066,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.89466666666667</v>
       </c>
       <c r="C31" t="n">
         <v>454.0733333333333</v>
